--- a/Agile Project Intro.xlsx
+++ b/Agile Project Intro.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -159,6 +159,21 @@
   </si>
   <si>
     <t>TOTAL TIME</t>
+  </si>
+  <si>
+    <t>Group Members</t>
+  </si>
+  <si>
+    <t>Nazlı Karalar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamze Küçükçolak </t>
+  </si>
+  <si>
+    <t>Mehmet Kağan Kayaalp</t>
+  </si>
+  <si>
+    <t>Erdi Koç</t>
   </si>
 </sst>
 </file>
@@ -197,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +237,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -264,11 +285,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -283,9 +356,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -298,6 +368,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,11 +511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101171200"/>
-        <c:axId val="101172736"/>
+        <c:axId val="200542464"/>
+        <c:axId val="200544256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101171200"/>
+        <c:axId val="200542464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101172736"/>
+        <c:crossAx val="200544256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -465,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101172736"/>
+        <c:axId val="200544256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -477,7 +554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101171200"/>
+        <c:crossAx val="200542464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -816,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S16"/>
+  <dimension ref="B2:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,26 +910,28 @@
     <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+    <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="4"/>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,29 +981,35 @@
       <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="U3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14">
-        <v>5</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <f>E4</f>
         <v>3</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <f>0</f>
         <v>0</v>
       </c>
@@ -941,35 +1026,38 @@
       <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="13">
         <v>3</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="V4" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14">
-        <v>5</v>
-      </c>
-      <c r="E5" s="14">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" ref="H5:H15" si="0">E5</f>
         <v>5</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>0</f>
         <v>0</v>
       </c>
@@ -986,35 +1074,38 @@
       <c r="Q5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="14">
-        <v>5</v>
-      </c>
-      <c r="S5" s="11" t="s">
+      <c r="R5" s="13">
+        <v>5</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="V5" s="18" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>4</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f>E6</f>
         <v>4</v>
       </c>
@@ -1025,33 +1116,36 @@
       <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <f>SUM(R4:R5)</f>
         <v>8</v>
       </c>
+      <c r="V6" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>8</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <f t="shared" ref="I7:I15" si="1">E7</f>
         <v>8</v>
       </c>
@@ -1059,29 +1153,32 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
+      <c r="V7" s="19" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1090,28 +1187,28 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>8</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1120,28 +1217,28 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="14">
-        <v>5</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13">
         <v>4</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1150,28 +1247,28 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>1</v>
       </c>
-      <c r="E11" s="14">
-        <v>5</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1180,28 +1277,28 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="14">
-        <v>5</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="13">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1210,28 +1307,28 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>3</v>
       </c>
-      <c r="E13" s="14">
-        <v>5</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1240,28 +1337,28 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1270,28 +1367,28 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>2</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>3</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1300,7 +1397,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>46</v>
       </c>

--- a/Agile Project Intro.xlsx
+++ b/Agile Project Intro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>Erdi Koç</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
   </si>
 </sst>
 </file>
@@ -368,13 +380,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,11 +523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200542464"/>
-        <c:axId val="200544256"/>
+        <c:axId val="119814144"/>
+        <c:axId val="92068032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200542464"/>
+        <c:axId val="119814144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200544256"/>
+        <c:crossAx val="92068032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -542,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200544256"/>
+        <c:axId val="92068032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -554,7 +566,189 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200542464"/>
+        <c:crossAx val="119814144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Burn Down Data</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111112E-2"/>
+                  <c:y val="-2.3148148148148147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.888888888888889E-2"/>
+                  <c:y val="-4.6296296296296294E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 1'!$H$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1'!$H$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="54325248"/>
+        <c:axId val="146186240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54325248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146186240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="146186240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54325248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -590,6 +784,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -895,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,21 +1146,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -981,10 +1212,10 @@
       <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1032,7 +1263,7 @@
       <c r="S4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1080,7 +1311,7 @@
       <c r="S5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1120,7 +1351,7 @@
         <f>SUM(R4:R5)</f>
         <v>8</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1153,7 +1384,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="V7" s="19" t="s">
+      <c r="V7" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1428,13 +1659,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="4"/>
+      <c r="O2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13">
+        <f>E4</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="13">
+        <v>3</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13">
+        <f t="shared" ref="H5:H18" si="0">E5</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="13">
+        <v>5</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="14">
+        <f>E6</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" ref="I7:I18" si="1">E7</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="Q7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="15">
+        <f>SUM(R4:R5)</f>
+        <v>8</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13">
+        <v>8</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="8">
+        <f>SUM(E4:E18)</f>
+        <v>64</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="8">
+        <f>E19</f>
+        <v>64</v>
+      </c>
+      <c r="I19" s="8">
+        <f>SUM(I4:I18)</f>
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="O2:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Agile Project Intro.xlsx
+++ b/Agile Project Intro.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -176,16 +176,67 @@
     <t>Erdi Koç</t>
   </si>
   <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>#13</t>
-  </si>
-  <si>
-    <t>#14</t>
-  </si>
-  <si>
-    <t>#15</t>
+    <t>#1.1</t>
+  </si>
+  <si>
+    <t>#1.2</t>
+  </si>
+  <si>
+    <t>#2.1</t>
+  </si>
+  <si>
+    <t>Uploading Menu Photos</t>
+  </si>
+  <si>
+    <t>#2.2</t>
+  </si>
+  <si>
+    <t>Adding Buttons in Menu</t>
+  </si>
+  <si>
+    <t>Fade in Logo</t>
+  </si>
+  <si>
+    <t>Uploading Logo Picture</t>
+  </si>
+  <si>
+    <t>#5.1</t>
+  </si>
+  <si>
+    <t>#5.2</t>
+  </si>
+  <si>
+    <t>#6.1</t>
+  </si>
+  <si>
+    <t>#6.2</t>
+  </si>
+  <si>
+    <t>#6.3</t>
+  </si>
+  <si>
+    <t>#7.1</t>
+  </si>
+  <si>
+    <t>Start Automatically</t>
+  </si>
+  <si>
+    <t>Send my location</t>
+  </si>
+  <si>
+    <t>Notify People around Here</t>
+  </si>
+  <si>
+    <t>Distance Measurement</t>
+  </si>
+  <si>
+    <t>Connection distances with button</t>
+  </si>
+  <si>
+    <t>Notification Tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazlı Karalar </t>
   </si>
 </sst>
 </file>
@@ -256,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -349,11 +400,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -384,8 +457,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,11 +609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119814144"/>
-        <c:axId val="92068032"/>
+        <c:axId val="216410368"/>
+        <c:axId val="216412160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119814144"/>
+        <c:axId val="216410368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92068032"/>
+        <c:crossAx val="216412160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92068032"/>
+        <c:axId val="216412160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -566,7 +652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119814144"/>
+        <c:crossAx val="216410368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -680,7 +766,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 1'!$H$16:$M$16</c:f>
+              <c:f>'Iteration 2'!$H$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -689,6 +775,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,11 +794,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54325248"/>
-        <c:axId val="146186240"/>
+        <c:axId val="226170752"/>
+        <c:axId val="226172288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54325248"/>
+        <c:axId val="226170752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146186240"/>
+        <c:crossAx val="226172288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146186240"/>
+        <c:axId val="226172288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -748,7 +837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54325248"/>
+        <c:crossAx val="226170752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -769,16 +858,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>913534</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -804,16 +893,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>514844</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1127,40 +1216,44 @@
   <dimension ref="B2:V16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="4"/>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1249,16 +1342,16 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>7</v>
@@ -1297,16 +1390,16 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R5" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>7</v>
@@ -1344,12 +1437,20 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="Q6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="15">
-        <f>SUM(R4:R5)</f>
-        <v>8</v>
+      <c r="O6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="20">
+        <v>4</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="V6" s="17" t="s">
         <v>50</v>
@@ -1384,6 +1485,21 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
+      <c r="O7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="20">
+        <v>1</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="V7" s="18" t="s">
         <v>51</v>
       </c>
@@ -1417,6 +1533,13 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
+      <c r="Q8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="15">
+        <f>SUM(R4:R7)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -1659,196 +1782,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V19"/>
+  <dimension ref="B1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="4"/>
-      <c r="O2" s="20" t="s">
+    <row r="1" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="4"/>
+      <c r="O1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-    </row>
-    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13">
+        <f>E3</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="13">
+        <v>2</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="V3" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
       </c>
       <c r="E4" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="13">
-        <f>E4</f>
-        <v>3</v>
+        <f t="shared" ref="H4:H14" si="0">E4</f>
+        <v>5</v>
       </c>
       <c r="I4" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="14">
+        <f t="shared" ref="J4:J6" si="1">I4</f>
+        <v>0</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="Q4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R4" s="13">
-        <v>3</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S4" s="10"/>
       <c r="V4" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="13">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:H18" si="0">E5</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="I5" s="14">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2"/>
+        <f>E5</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="O5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="Q5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="13">
-        <v>5</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="R5" s="20">
+        <v>3</v>
+      </c>
+      <c r="S5" s="10"/>
       <c r="V5" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
       </c>
       <c r="E6" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
@@ -1856,165 +2041,238 @@
       <c r="G6" s="6"/>
       <c r="H6" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6" s="14">
-        <f>E6</f>
-        <v>4</v>
-      </c>
-      <c r="J6" s="2"/>
+        <f t="shared" ref="I6:I14" si="2">E6</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="O6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="Q6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="R6" s="20">
+        <v>3</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="V6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="13">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" ref="I7:I18" si="1">E7</f>
-        <v>8</v>
-      </c>
-      <c r="J7" s="2"/>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="Q7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="15">
-        <f>SUM(R4:R5)</f>
-        <v>8</v>
-      </c>
-      <c r="V7" s="18" t="s">
+      <c r="O7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="22" t="s">
         <v>51</v>
       </c>
+      <c r="R7" s="25">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="13">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J8" s="2"/>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
+      <c r="O8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="13">
+        <v>2</v>
+      </c>
+      <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
       <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="14">
+        <f>I10</f>
+        <v>5</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="14">
+        <f>I11</f>
+        <v>5</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>14</v>
@@ -2022,29 +2280,32 @@
       <c r="G12" s="6"/>
       <c r="H12" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J12" s="2"/>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" ref="J12:J14" si="3">I12</f>
+        <v>5</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>14</v>
@@ -2052,29 +2313,32 @@
       <c r="G13" s="6"/>
       <c r="H13" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J13" s="2"/>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D14" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>14</v>
@@ -2082,161 +2346,47 @@
       <c r="G14" s="6"/>
       <c r="H14" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J14" s="2"/>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>5</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="13">
-        <v>3</v>
-      </c>
-      <c r="E17" s="13">
-        <v>8</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13">
-        <v>3</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="8">
-        <f>SUM(E4:E18)</f>
+      <c r="E15" s="8">
+        <f>SUM(E3:E14)</f>
         <v>64</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="8">
-        <f>E19</f>
+      <c r="H15" s="8">
         <v>64</v>
       </c>
-      <c r="I19" s="8">
-        <f>SUM(I4:I18)</f>
+      <c r="I15" s="8">
+        <f>SUM(I3:I14)</f>
         <v>56</v>
+      </c>
+      <c r="J15" s="24">
+        <f>SUM(J3:J14)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="O1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Agile Project Intro.xlsx
+++ b/Agile Project Intro.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nazlı Karalar </t>
+  </si>
+  <si>
+    <t>WEEK2 SUM</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -460,9 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,6 +472,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,11 +618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216410368"/>
-        <c:axId val="216412160"/>
+        <c:axId val="225192192"/>
+        <c:axId val="225198080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216410368"/>
+        <c:axId val="225192192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216412160"/>
+        <c:crossAx val="225198080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216412160"/>
+        <c:axId val="225198080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -652,7 +661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216410368"/>
+        <c:crossAx val="225192192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -777,7 +786,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,11 +803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="226170752"/>
-        <c:axId val="226172288"/>
+        <c:axId val="225063296"/>
+        <c:axId val="225064832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="226170752"/>
+        <c:axId val="225063296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226172288"/>
+        <c:crossAx val="225064832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -825,7 +834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226172288"/>
+        <c:axId val="225064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -837,7 +846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226170752"/>
+        <c:crossAx val="225063296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -894,15 +903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>514844</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>533894</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1215,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,21 +1248,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="4"/>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1766,7 +1775,7 @@
         <v>64</v>
       </c>
       <c r="I16" s="8">
-        <f>SUM(I4:I15)</f>
+        <f>H16-R8</f>
         <v>56</v>
       </c>
     </row>
@@ -1785,7 +1794,7 @@
   <dimension ref="B1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,21 +1811,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="4"/>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1919,7 +1928,9 @@
       <c r="R3" s="13">
         <v>2</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="V3" s="17" t="s">
         <v>36</v>
       </c>
@@ -1968,7 +1979,9 @@
       <c r="R4" s="13">
         <v>2</v>
       </c>
-      <c r="S4" s="10"/>
+      <c r="S4" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="V4" s="17" t="s">
         <v>49</v>
       </c>
@@ -2015,9 +2028,11 @@
         <v>72</v>
       </c>
       <c r="R5" s="20">
-        <v>3</v>
-      </c>
-      <c r="S5" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="V5" s="17" t="s">
         <v>50</v>
       </c>
@@ -2064,9 +2079,11 @@
         <v>49</v>
       </c>
       <c r="R6" s="20">
-        <v>3</v>
-      </c>
-      <c r="S6" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="V6" s="18" t="s">
         <v>51</v>
       </c>
@@ -2108,13 +2125,15 @@
       <c r="P7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="24">
         <v>2</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -2157,10 +2176,12 @@
       <c r="Q8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="26">
         <v>2</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -2194,6 +2215,13 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
+      <c r="Q9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="27">
+        <f>SUM(R3:R8)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -2287,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" ref="J12:J14" si="3">I12</f>
+        <f t="shared" ref="J12:J15" si="3">I12</f>
         <v>5</v>
       </c>
       <c r="K12" s="2"/>
@@ -2352,7 +2380,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2375,12 +2403,12 @@
         <v>64</v>
       </c>
       <c r="I15" s="8">
-        <f>SUM(I3:I14)</f>
+        <f>H15-'Iteration 1'!R8</f>
         <v>56</v>
       </c>
-      <c r="J15" s="24">
-        <f>SUM(J3:J14)</f>
-        <v>38</v>
+      <c r="J15" s="23">
+        <f>I15-R9</f>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Agile Project Intro.xlsx
+++ b/Agile Project Intro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -240,13 +240,55 @@
   </si>
   <si>
     <t>WEEK2 SUM</t>
+  </si>
+  <si>
+    <t>Assign Ids to the buttons</t>
+  </si>
+  <si>
+    <t>Adding Friends Button</t>
+  </si>
+  <si>
+    <t>Creating Database</t>
+  </si>
+  <si>
+    <t>Profile Information Button</t>
+  </si>
+  <si>
+    <t>Connecting Profile Information with Database</t>
+  </si>
+  <si>
+    <t>#3.1</t>
+  </si>
+  <si>
+    <t>#3.2</t>
+  </si>
+  <si>
+    <t>#3.3</t>
+  </si>
+  <si>
+    <t>#4.1</t>
+  </si>
+  <si>
+    <t>#4.2</t>
+  </si>
+  <si>
+    <t>#4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest </t>
+  </si>
+  <si>
+    <t>ACTUAL TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +314,15 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -429,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -473,13 +524,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,7 +570,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -618,11 +676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225192192"/>
-        <c:axId val="225198080"/>
+        <c:axId val="212874752"/>
+        <c:axId val="212876288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225192192"/>
+        <c:axId val="212874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225198080"/>
+        <c:crossAx val="212876288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225198080"/>
+        <c:axId val="212876288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -661,7 +719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225192192"/>
+        <c:crossAx val="212874752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -693,7 +751,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -803,11 +860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225063296"/>
-        <c:axId val="225064832"/>
+        <c:axId val="212921728"/>
+        <c:axId val="213214336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225063296"/>
+        <c:axId val="212921728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225064832"/>
+        <c:crossAx val="213214336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -834,7 +891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225064832"/>
+        <c:axId val="213214336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -846,7 +903,198 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225063296"/>
+        <c:crossAx val="212921728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Burn Down Data</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111112E-2"/>
+                  <c:y val="-2.3148148148148147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.888888888888889E-2"/>
+                  <c:y val="-4.6296296296296294E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 1'!$H$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 3'!$I$20:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="213063168"/>
+        <c:axId val="213064704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="213063168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213064704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213064704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="213063168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -899,6 +1147,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533894</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1248,21 +1533,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="4"/>
-      <c r="O2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="O2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1793,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,21 +2096,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="4"/>
-      <c r="O1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="O1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2176,7 +2461,7 @@
       <c r="Q8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="25">
         <v>2</v>
       </c>
       <c r="S8" s="10" t="s">
@@ -2218,7 +2503,7 @@
       <c r="Q9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="26">
         <f>SUM(R3:R8)</f>
         <v>12</v>
       </c>
@@ -2315,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" ref="J12:J15" si="3">I12</f>
+        <f t="shared" ref="J12:J14" si="3">I12</f>
         <v>5</v>
       </c>
       <c r="K12" s="2"/>
@@ -2423,13 +2708,716 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="4"/>
+      <c r="O1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+    </row>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13">
+        <f>E3</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="13">
+        <v>2</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H14" si="0">E4</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" ref="J4:J6" si="1">I4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="13">
+        <v>2</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="14">
+        <f>E5</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K5" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="O5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="20">
+        <v>1</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" ref="I6:I14" si="2">E6</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="O6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="20">
+        <v>6</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="24">
+        <v>4</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13">
+        <v>8</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="O8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="25">
+        <v>2</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="Q9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="26">
+        <f>SUM(R3:R8)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="14">
+        <f>I10</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="14">
+        <f>J10</f>
+        <v>5</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="14">
+        <f>I11</f>
+        <v>5</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" ref="K11:K14" si="3">J11</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" ref="J12:J14" si="4">I12</f>
+        <v>5</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8">
+        <f>SUM(E3:E14)</f>
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8">
+        <v>64</v>
+      </c>
+      <c r="I15" s="8">
+        <f>H15-'Iteration 1'!R8</f>
+        <v>56</v>
+      </c>
+      <c r="J15" s="23">
+        <f>I15-R9</f>
+        <v>39</v>
+      </c>
+      <c r="K15" s="28">
+        <f>SUM(K3:K14)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <f>SUM(E5:E6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18">
+        <f>R9-K17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="27">
+        <v>64</v>
+      </c>
+      <c r="J20" s="27">
+        <v>56</v>
+      </c>
+      <c r="K20" s="28">
+        <v>44</v>
+      </c>
+      <c r="L20" s="3">
+        <f>K20+K18</f>
+        <v>49</v>
+      </c>
+      <c r="M20" s="29">
+        <f>L20-K17</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="O1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Agile Project Intro.xlsx
+++ b/Agile Project Intro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="102">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -282,6 +282,48 @@
   </si>
   <si>
     <t>ACTUAL TOTAL</t>
+  </si>
+  <si>
+    <t>Adding a map</t>
+  </si>
+  <si>
+    <t>#8.1</t>
+  </si>
+  <si>
+    <t>#11.1</t>
+  </si>
+  <si>
+    <t>#11.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifying Database </t>
+  </si>
+  <si>
+    <t>WEEK3 SUM</t>
+  </si>
+  <si>
+    <t>WEEK4 SUM</t>
+  </si>
+  <si>
+    <t>#12.1</t>
+  </si>
+  <si>
+    <t>Adding buttons for contact's information</t>
+  </si>
+  <si>
+    <t>Connecting contacts' info with database</t>
+  </si>
+  <si>
+    <t>Connecting a button with informations to show</t>
+  </si>
+  <si>
+    <t>#12.2</t>
+  </si>
+  <si>
+    <t>Show contacts information</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -480,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -541,6 +583,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,6 +616,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -625,9 +672,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Iteration 1'!$H$3:$M$3</c:f>
+              <c:f>'Iteration 1'!$H$3:$N$3</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>START</c:v>
                 </c:pt>
@@ -641,9 +688,12 @@
                   <c:v>WEEK3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>WEEK4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>WEEK5</c:v>
                 </c:pt>
               </c:strCache>
@@ -651,10 +701,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 1'!$H$16:$M$16</c:f>
+              <c:f>'Iteration 1'!$H$16:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -676,11 +726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212874752"/>
-        <c:axId val="212876288"/>
+        <c:axId val="211969536"/>
+        <c:axId val="211971072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212874752"/>
+        <c:axId val="211969536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212876288"/>
+        <c:crossAx val="211971072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -707,7 +757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212876288"/>
+        <c:axId val="211971072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -719,7 +769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212874752"/>
+        <c:crossAx val="211969536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,6 +801,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -806,9 +857,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Iteration 1'!$H$3:$M$3</c:f>
+              <c:f>'Iteration 1'!$H$3:$N$3</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>START</c:v>
                 </c:pt>
@@ -822,9 +873,12 @@
                   <c:v>WEEK3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>WEEK4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>WEEK5</c:v>
                 </c:pt>
               </c:strCache>
@@ -860,11 +914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212921728"/>
-        <c:axId val="213214336"/>
+        <c:axId val="212286848"/>
+        <c:axId val="212321408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212921728"/>
+        <c:axId val="212286848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +937,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213214336"/>
+        <c:crossAx val="212321408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213214336"/>
+        <c:axId val="212321408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -903,7 +957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212921728"/>
+        <c:crossAx val="212286848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,9 +1045,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Iteration 1'!$H$3:$M$3</c:f>
+              <c:f>'Iteration 1'!$H$3:$N$3</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>START</c:v>
                 </c:pt>
@@ -1007,9 +1061,12 @@
                   <c:v>WEEK3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>WEEK4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>WEEK5</c:v>
                 </c:pt>
               </c:strCache>
@@ -1051,11 +1108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213063168"/>
-        <c:axId val="213064704"/>
+        <c:axId val="212143104"/>
+        <c:axId val="212153088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213063168"/>
+        <c:axId val="212143104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +1131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213064704"/>
+        <c:crossAx val="212153088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1082,7 +1139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213064704"/>
+        <c:axId val="212153088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1094,7 +1151,210 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213063168"/>
+        <c:crossAx val="212143104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Burn Down Data</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111112E-2"/>
+                  <c:y val="-2.3148148148148147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.888888888888889E-2"/>
+                  <c:y val="-4.6296296296296294E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 4'!$H$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>START</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WEEK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEEK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WEEK3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WEEK4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WEEK5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$I$20:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="117053696"/>
+        <c:axId val="117280768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117053696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117280768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117280768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117053696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,13 +1375,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1047751</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>913534</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>93518</xdr:rowOff>
@@ -1197,6 +1457,43 @@
       <xdr:colOff>533894</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>193219</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>357000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1507,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V16"/>
+  <dimension ref="B2:W16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,17 +1819,19 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
@@ -1541,15 +1840,15 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="4"/>
-      <c r="O2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="31"/>
+      <c r="P2" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
-    </row>
-    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,34 +1878,37 @@
         <v>40</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="W3" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1635,26 +1937,27 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="13">
+      <c r="S4" s="13">
         <v>2</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="W4" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1683,26 +1986,27 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="13">
+      <c r="S5" s="13">
         <v>1</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="W5" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1731,26 +2035,27 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="O6" s="10" t="s">
+      <c r="N6" s="2"/>
+      <c r="P6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="20">
+      <c r="S6" s="20">
         <v>4</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="W6" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1779,26 +2084,27 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="O7" s="10" t="s">
+      <c r="N7" s="2"/>
+      <c r="P7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="Q7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="20">
+      <c r="S7" s="20">
         <v>1</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="T7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="W7" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1827,15 +2133,16 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="Q8" s="3" t="s">
+      <c r="N8" s="2"/>
+      <c r="R8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="15">
-        <f>SUM(R4:R7)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S8" s="15">
+        <f>SUM(S4:S7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1864,8 +2171,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1894,8 +2202,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1924,8 +2233,9 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1954,8 +2264,9 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1984,8 +2295,9 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2014,8 +2326,9 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
@@ -2044,8 +2357,9 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2060,14 +2374,14 @@
         <v>64</v>
       </c>
       <c r="I16" s="8">
-        <f>H16-R8</f>
+        <f>H16-S8</f>
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="P2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2078,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V15"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2405,7 @@
     <col min="16" max="16" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2688,7 +3002,7 @@
         <v>64</v>
       </c>
       <c r="I15" s="8">
-        <f>H15-'Iteration 1'!R8</f>
+        <f>H15-'Iteration 1'!S8</f>
         <v>56</v>
       </c>
       <c r="J15" s="23">
@@ -2710,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,15 +3033,15 @@
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -3157,7 +3471,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="Q9" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="R9" s="26">
         <f>SUM(R3:R8)</f>
@@ -3359,7 +3673,7 @@
         <v>64</v>
       </c>
       <c r="I15" s="8">
-        <f>H15-'Iteration 1'!R8</f>
+        <f>H15-'Iteration 1'!S8</f>
         <v>56</v>
       </c>
       <c r="J15" s="23">
@@ -3423,13 +3737,839 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="18" max="18" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="4"/>
+      <c r="Q1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13">
+        <f>E3</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14">
+        <f>K3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="33"/>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="32">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H14" si="0">E4</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" ref="J4:J6" si="1">I4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14">
+        <f>K4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="13">
+        <v>1</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="14">
+        <f>E5</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K5" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="2"/>
+      <c r="Q5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="13">
+        <v>2</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" ref="I6:I14" si="2">E6</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="33"/>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="20">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="O7" s="2"/>
+      <c r="Q7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="20">
+        <v>4</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13">
+        <v>8</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14">
+        <f>K8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="2"/>
+      <c r="Q8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="25">
+        <v>3</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14">
+        <f>K9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="2"/>
+      <c r="Q9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="13">
+        <v>3</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="14">
+        <f>I10</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="14">
+        <f>J10</f>
+        <v>5</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="O10" s="2"/>
+      <c r="Q10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="13">
+        <v>2</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="14">
+        <f>I11</f>
+        <v>5</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" ref="K11:K14" si="3">J11</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14">
+        <f>K11</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="2"/>
+      <c r="Q11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="13">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" ref="J12:J14" si="4">I12</f>
+        <v>5</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14">
+        <f>K12</f>
+        <v>5</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="O12" s="2"/>
+      <c r="S12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="32">
+        <f>SUM(T3:T11)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8">
+        <f>SUM(E3:E14)</f>
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8">
+        <v>64</v>
+      </c>
+      <c r="I15" s="8">
+        <f>H15-'Iteration 1'!S8</f>
+        <v>56</v>
+      </c>
+      <c r="J15" s="23">
+        <f>I15-T9</f>
+        <v>53</v>
+      </c>
+      <c r="K15" s="28">
+        <f>SUM(K3:K14)</f>
+        <v>26</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="8">
+        <f>SUM(M3:M14)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <f>SUM(E13:E14)+E10</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18">
+        <f>-K17+T12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="27">
+        <v>64</v>
+      </c>
+      <c r="J20" s="27">
+        <v>56</v>
+      </c>
+      <c r="K20" s="28">
+        <v>44</v>
+      </c>
+      <c r="L20" s="3">
+        <v>49</v>
+      </c>
+      <c r="M20" s="29">
+        <v>32</v>
+      </c>
+      <c r="N20" s="7">
+        <f>M20+K18</f>
+        <v>34</v>
+      </c>
+      <c r="O20" s="7">
+        <f>N20-T12</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="Q1:U1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
